--- a/RelatorioDiasSemanaComMaisConversoesAno_2023_Mes_11.xlsx
+++ b/RelatorioDiasSemanaComMaisConversoesAno_2023_Mes_11.xlsx
@@ -77,16 +77,16 @@
     <t>5</t>
   </si>
   <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>14/11/2023</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>07/11/2023</t>
-  </si>
-  <si>
-    <t>03/11/2023</t>
+    <t>10/11/2023</t>
   </si>
 </sst>
 </file>
@@ -252,7 +252,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
